--- a/source/example.xlsx
+++ b/source/example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="150">
   <si>
     <t>商店ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,6 +564,34 @@
   </si>
   <si>
     <t>GoodContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1492,10 +1520,10 @@
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
     <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="39.625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="32.375" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
@@ -1578,87 +1606,89 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1001</v>
-      </c>
-      <c r="B4">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>10100008</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B5">
         <v>101</v>
@@ -1686,15 +1716,15 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B6">
         <v>101</v>
@@ -1715,22 +1745,22 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B7">
         <v>101</v>
@@ -1758,15 +1788,15 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B8">
         <v>101</v>
@@ -1781,7 +1811,7 @@
         <v>2001</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1794,15 +1824,15 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B9">
         <v>101</v>
@@ -1817,7 +1847,7 @@
         <v>2001</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1830,15 +1860,15 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B10">
         <v>101</v>
@@ -1866,15 +1896,15 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B11">
         <v>101</v>
@@ -1902,15 +1932,15 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B12">
         <v>101</v>
@@ -1928,25 +1958,25 @@
         <v>13</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B13">
         <v>101</v>
@@ -1974,15 +2004,15 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B14">
         <v>101</v>
@@ -2003,22 +2033,22 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B15">
         <v>101</v>
@@ -2046,15 +2076,15 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B16">
         <v>101</v>
@@ -2082,15 +2112,15 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B17">
         <v>101</v>
@@ -2118,15 +2148,15 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B18">
         <v>101</v>
@@ -2154,15 +2184,15 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B19">
         <v>101</v>
@@ -2190,51 +2220,51 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1016</v>
+      </c>
+      <c r="B20">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>10100008</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <v>2001</v>
-      </c>
-      <c r="B20" s="13">
-        <v>102</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="13">
-        <v>10100010</v>
-      </c>
-      <c r="E20" s="14">
-        <v>2002</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B21" s="13">
         <v>102</v>
@@ -2255,22 +2285,22 @@
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B22" s="13">
         <v>102</v>
@@ -2291,28 +2321,28 @@
         <v>1</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B23" s="13">
         <v>102</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D23" s="13">
         <v>10100010</v>
@@ -2334,21 +2364,21 @@
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B24" s="13">
         <v>102</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D24" s="13">
         <v>10100010</v>
@@ -2366,25 +2396,25 @@
         <v>125</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B25" s="13">
         <v>102</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D25" s="13">
         <v>10100010</v>
@@ -2404,55 +2434,55 @@
       <c r="I25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="15"/>
+      <c r="K25" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="13">
+        <v>102</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="13">
+        <v>10100010</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2002</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="15">
         <v>2</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L26" s="17" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2007</v>
-      </c>
-      <c r="B26">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26">
-        <v>10100010</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2003</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B27">
         <v>102</v>
@@ -2473,22 +2503,22 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B28">
         <v>102</v>
@@ -2512,19 +2542,19 @@
         <v>102</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B29">
         <v>102</v>
@@ -2548,19 +2578,19 @@
         <v>102</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B30">
         <v>102</v>
@@ -2584,25 +2614,25 @@
         <v>102</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B31">
         <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D31">
         <v>10100010</v>
@@ -2620,33 +2650,31 @@
         <v>102</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B32">
         <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <v>10100010</v>
       </c>
       <c r="E32" s="6">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -2655,22 +2683,24 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
       <c r="K32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B33">
         <v>102</v>
@@ -2694,25 +2724,25 @@
         <v>104</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B34">
         <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D34">
         <v>10100010</v>
@@ -2730,25 +2760,25 @@
         <v>104</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B35">
         <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D35">
         <v>10100010</v>
@@ -2770,21 +2800,21 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B36">
         <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D36">
         <v>10100010</v>
@@ -2806,21 +2836,21 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B37">
         <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D37">
         <v>10100010</v>
@@ -2840,19 +2870,17 @@
       <c r="I37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
+      <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B38">
         <v>102</v>
@@ -2864,7 +2892,7 @@
         <v>10100010</v>
       </c>
       <c r="E38" s="6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2873,22 +2901,24 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
       <c r="K38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B39">
         <v>102</v>
@@ -2912,25 +2942,25 @@
         <v>105</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B40">
         <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D40">
         <v>10100010</v>
@@ -2948,19 +2978,19 @@
         <v>105</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B41">
         <v>102</v>
@@ -2984,25 +3014,25 @@
         <v>105</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B42">
         <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <v>10100010</v>
@@ -3020,25 +3050,25 @@
         <v>105</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B43">
         <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <v>10100010</v>
@@ -3056,62 +3086,57 @@
         <v>105</v>
       </c>
       <c r="I43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44">
+        <v>10100010</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2005</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>1</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
-        <v>3001</v>
-      </c>
-      <c r="B44" s="9">
-        <v>103</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="9">
-        <v>10100011</v>
-      </c>
-      <c r="E44" s="10">
-        <v>3001</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="9">
-        <v>1</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B45" s="9">
         <v>103</v>
@@ -3139,10 +3164,10 @@
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -3152,7 +3177,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B46" s="9">
         <v>103</v>
@@ -3180,10 +3205,10 @@
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -3193,7 +3218,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B47" s="9">
         <v>103</v>
@@ -3221,10 +3246,10 @@
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -3234,7 +3259,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B48" s="9">
         <v>103</v>
@@ -3249,7 +3274,7 @@
         <v>3001</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G48" s="9">
         <v>1</v>
@@ -3262,10 +3287,10 @@
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -3275,7 +3300,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B49" s="9">
         <v>103</v>
@@ -3290,7 +3315,7 @@
         <v>3001</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G49" s="9">
         <v>1</v>
@@ -3303,10 +3328,10 @@
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -3316,7 +3341,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B50" s="9">
         <v>103</v>
@@ -3344,10 +3369,10 @@
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -3357,7 +3382,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B51" s="9">
         <v>103</v>
@@ -3385,10 +3410,10 @@
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -3398,7 +3423,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B52" s="9">
         <v>103</v>
@@ -3416,7 +3441,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>106</v>
@@ -3426,10 +3451,10 @@
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -3439,7 +3464,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B53" s="9">
         <v>103</v>
@@ -3467,10 +3492,10 @@
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -3480,7 +3505,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B54" s="9">
         <v>103</v>
@@ -3508,10 +3533,10 @@
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -3521,7 +3546,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B55" s="9">
         <v>103</v>
@@ -3549,10 +3574,10 @@
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -3562,7 +3587,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B56" s="9">
         <v>103</v>
@@ -3590,10 +3615,10 @@
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -3603,7 +3628,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B57" s="9">
         <v>103</v>
@@ -3631,10 +3656,10 @@
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -3644,7 +3669,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B58" s="9">
         <v>103</v>
@@ -3672,10 +3697,10 @@
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -3685,7 +3710,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B59" s="9">
         <v>103</v>
@@ -3713,10 +3738,10 @@
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -3726,7 +3751,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B60" s="9">
         <v>103</v>
@@ -3744,20 +3769,20 @@
         <v>13</v>
       </c>
       <c r="G60" s="9">
-        <v>3</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>107</v>
+        <v>2</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -3767,7 +3792,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B61" s="9">
         <v>103</v>
@@ -3795,10 +3820,10 @@
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -3808,7 +3833,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B62" s="9">
         <v>103</v>
@@ -3836,10 +3861,10 @@
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -3849,7 +3874,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B63" s="9">
         <v>103</v>
@@ -3877,10 +3902,10 @@
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -3888,115 +3913,156 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
     </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>3020</v>
+      </c>
+      <c r="B64" s="9">
+        <v>103</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="9">
+        <v>10100011</v>
+      </c>
+      <c r="E64" s="10">
+        <v>3001</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="9">
+        <v>3</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L4 L6:L7">
+  <conditionalFormatting sqref="L5 L7:L8">
     <cfRule type="duplicateValues" dxfId="51" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L7">
+  <conditionalFormatting sqref="L5:L8">
     <cfRule type="duplicateValues" dxfId="50" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
+  <conditionalFormatting sqref="L6">
     <cfRule type="duplicateValues" dxfId="49" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L11 L14:L15 L18:L19">
+  <conditionalFormatting sqref="L9 L12 L15:L16 L19:L20">
     <cfRule type="duplicateValues" dxfId="48" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9 L11 L13:L15 L17:L19">
+  <conditionalFormatting sqref="L9:L10 L12 L14:L16 L18:L20">
     <cfRule type="duplicateValues" dxfId="47" priority="118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L13 L17">
+  <conditionalFormatting sqref="L10 L14 L18">
     <cfRule type="duplicateValues" dxfId="46" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
+  <conditionalFormatting sqref="L11">
     <cfRule type="duplicateValues" dxfId="45" priority="95"/>
     <cfRule type="duplicateValues" dxfId="44" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
+  <conditionalFormatting sqref="L13">
     <cfRule type="duplicateValues" dxfId="43" priority="93"/>
     <cfRule type="duplicateValues" dxfId="42" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="L17">
     <cfRule type="duplicateValues" dxfId="41" priority="91"/>
     <cfRule type="duplicateValues" dxfId="40" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="L21">
     <cfRule type="duplicateValues" dxfId="39" priority="69"/>
     <cfRule type="duplicateValues" dxfId="38" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="L22">
     <cfRule type="duplicateValues" dxfId="37" priority="67"/>
     <cfRule type="duplicateValues" dxfId="36" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L23">
     <cfRule type="duplicateValues" dxfId="35" priority="65"/>
     <cfRule type="duplicateValues" dxfId="34" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
+  <conditionalFormatting sqref="L24">
     <cfRule type="duplicateValues" dxfId="33" priority="63"/>
     <cfRule type="duplicateValues" dxfId="32" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
+  <conditionalFormatting sqref="L25">
     <cfRule type="duplicateValues" dxfId="31" priority="61"/>
     <cfRule type="duplicateValues" dxfId="30" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="L27">
     <cfRule type="duplicateValues" dxfId="29" priority="29"/>
     <cfRule type="duplicateValues" dxfId="28" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+  <conditionalFormatting sqref="L28">
     <cfRule type="duplicateValues" dxfId="27" priority="27"/>
     <cfRule type="duplicateValues" dxfId="26" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+  <conditionalFormatting sqref="L29">
     <cfRule type="duplicateValues" dxfId="25" priority="25"/>
     <cfRule type="duplicateValues" dxfId="24" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="L30">
     <cfRule type="duplicateValues" dxfId="23" priority="23"/>
     <cfRule type="duplicateValues" dxfId="22" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
+  <conditionalFormatting sqref="L31">
     <cfRule type="duplicateValues" dxfId="21" priority="21"/>
     <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
+  <conditionalFormatting sqref="L33">
     <cfRule type="duplicateValues" dxfId="19" priority="19"/>
     <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
+  <conditionalFormatting sqref="L34">
     <cfRule type="duplicateValues" dxfId="17" priority="17"/>
     <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="L35">
     <cfRule type="duplicateValues" dxfId="15" priority="15"/>
     <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
+  <conditionalFormatting sqref="L36">
     <cfRule type="duplicateValues" dxfId="13" priority="13"/>
     <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
+  <conditionalFormatting sqref="L37">
     <cfRule type="duplicateValues" dxfId="11" priority="11"/>
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
+  <conditionalFormatting sqref="L39">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39">
+  <conditionalFormatting sqref="L40">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
+  <conditionalFormatting sqref="L41">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
+  <conditionalFormatting sqref="L42">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
+  <conditionalFormatting sqref="L43">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
